--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -3525,11 +3525,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>*PERISHABLE INVENTORY</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3769,7 +3765,11 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>*PERISHABLE INVENTORY</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,7 +3525,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3574,7 +3578,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3621,7 +3625,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3668,7 +3672,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3715,7 +3719,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3765,11 +3769,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>*PERISHABLE INVENTORY</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4019,10 +4019,14 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4054,7 +4058,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4093,12 +4097,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:30</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4132,12 +4136,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4155,45 +4159,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -1509,7 +1509,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>6:30 AM RACINE COURT 
+          <t>6:30 AM MEET RACINE COURT 
 (HWY 43 &amp; Y)</t>
         </is>
       </c>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -3410,7 +3410,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Grafton crew</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3436,22 +3440,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3494,18 +3485,18 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Altima, Equip</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3550,15 +3541,20 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3597,12 +3593,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3644,12 +3640,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3691,12 +3687,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3743,12 +3739,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3791,17 +3787,17 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -3848,9 +3844,21 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3935,11 +3943,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -3988,7 +3992,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4029,7 +4033,11 @@
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,20 +536,52 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -563,12 +595,28 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -590,8 +638,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -617,8 +673,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -640,55 +704,27 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -697,7 +733,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -709,7 +745,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -717,7 +753,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -725,7 +761,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -733,7 +769,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -741,7 +777,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -752,15 +788,19 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -768,7 +808,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +816,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +824,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,7 +832,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -803,7 +843,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MILLER &amp; SONS SUPERMARKET, MT HOREB</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -811,7 +851,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -819,7 +859,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,7 +867,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -835,7 +875,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -843,7 +883,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -854,7 +894,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1845 SPRINGDALE ST</t>
+          <t>MILLER &amp; SONS SUPERMARKET, MT HOREB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -862,7 +902,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -870,7 +910,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -878,7 +918,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -886,7 +926,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -894,7 +934,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -905,7 +945,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zSVBPqJx7dR2</t>
+          <t>1845 SPRINGDALE ST</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -913,7 +953,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -921,7 +961,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -929,7 +969,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -937,7 +977,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -945,7 +985,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -954,13 +994,17 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zSVBPqJx7dR2</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -968,7 +1012,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -976,7 +1020,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -984,7 +1028,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -992,7 +1036,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1000,26 +1044,14 @@
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1027,7 +1059,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1035,7 +1067,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1043,7 +1075,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1051,7 +1083,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1061,25 +1093,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1087,7 +1118,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1095,7 +1126,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1103,7 +1134,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1111,7 +1142,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1121,20 +1152,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1142,7 +1178,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1150,7 +1186,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1158,7 +1194,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1166,7 +1202,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1176,12 +1212,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1189,7 +1225,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1197,7 +1233,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1205,7 +1241,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1213,13 +1249,17 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
@@ -1227,12 +1267,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1280,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1248,7 +1288,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1256,42 +1296,34 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1299,7 +1331,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1307,7 +1339,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1315,62 +1347,50 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1378,7 +1398,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1386,30 +1406,37 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1417,12 +1444,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1434,7 +1461,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1442,7 +1469,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1450,14 +1477,27 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1468,12 +1508,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1485,7 +1525,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1493,13 +1533,17 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1507,12 +1551,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RACINE COURT 
-(HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1520,12 +1559,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1535,45 +1574,34 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>3:30 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RACINE COURT 
+(HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1583,12 +1611,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1597,46 +1625,38 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>3:30 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1644,7 +1664,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1654,12 +1674,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1670,37 +1690,44 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1708,7 +1735,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>KANSASVILLE CITGO QUICK MART</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1716,18 +1743,43 @@
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1739,7 +1791,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>FESTIVAL #2715, LACROSSE COPELAND - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1747,7 +1799,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>23010 DURAND AVE</t>
+          <t>KANSASVILLE CITGO QUICK MART</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1764,21 +1816,21 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>30 COPELAND AVE</t>
+          <t>FESTIVAL #2715, LACROSSE COPELAND - LIFO</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1786,7 +1838,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
+          <t>23010 DURAND AVE</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1799,33 +1851,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1833,7 +1869,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8GFRTS3NjAC2</t>
+          <t>30 COPELAND AVE</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1841,7 +1877,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1856,39 +1892,47 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8GFRTS3NjAC2</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1903,19 +1947,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1923,31 +1967,19 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MARIANO'S #516 +RX, CHICAGO-BUCKTOWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>TWIN LAKES CITGO, TWIN LAKES</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -1962,43 +1994,51 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2112 N ASHLAND AVE</t>
+          <t>MARIANO'S #516 +RX, CHICAGO-BUCKTOWN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>(Help Driver if needed)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>410 N LAKE AVE</t>
+          <t>TWIN LAKES CITGO, TWIN LAKES</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2013,7 +2053,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2025,32 +2065,31 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/As5rMPShhSw</t>
+          <t>2112 N ASHLAND AVE</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>(Help Driver if needed)</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+          <t>410 N LAKE AVE</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2065,41 +2104,46 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/As5rMPShhSw</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2112,7 +2156,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2120,43 +2164,34 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2168,7 +2203,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2176,54 +2211,43 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2235,7 +2259,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2243,36 +2267,35 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2281,8 +2304,16 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2295,7 +2326,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2303,31 +2334,36 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2350,35 +2386,39 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2388,11 +2428,7 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2405,47 +2441,35 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NO LONGER COUNT CIGS &amp; LOTTO</t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2457,7 +2481,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2470,33 +2494,49 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO LONGER COUNT CIGS &amp; LOTTO</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2506,7 +2546,11 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2516,23 +2560,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima
-Equip</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2540,29 +2570,24 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2584,44 +2609,51 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima
+Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2641,43 +2673,46 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2704,35 +2739,36 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2753,46 +2789,41 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2815,7 +2846,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2823,35 +2854,36 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>836 W WELLINGTON AVE, SUITE 1801</t>
+          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2874,7 +2906,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2882,19 +2914,19 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
+          <t>836 W WELLINGTON AVE, SUITE 1801</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2905,12 +2937,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -2933,7 +2965,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2941,19 +2973,19 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>HAS PAID PARKING.  PARK IN WELLINGTON STRUCTURE ENTER THROUGH MAIN ENTRANCE (NEAR EMERG).</t>
+          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -2962,9 +2994,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -2980,23 +3024,27 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>HAS PAID PARKING.  PARK IN WELLINGTON STRUCTURE ENTER THROUGH MAIN ENTRANCE (NEAR EMERG).</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3023,35 +3071,23 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3061,11 +3097,7 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3082,36 +3114,47 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>APPROX 10:00/11:00 AM START</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3130,21 +3173,38 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 10:00/11:00 AM START</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3161,7 +3221,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3171,11 +3231,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3196,23 +3252,19 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>RON'S MARKET, HELENVILLE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3235,7 +3287,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+          <t>W3094 HWY 18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3243,7 +3295,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3251,7 +3303,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3272,13 +3324,17 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3286,7 +3342,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>FESTIVAL #2728, SALEM - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3306,27 +3362,14 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3334,7 +3377,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>25300 75TH ST</t>
+          <t>FESTIVAL #2728, SALEM - LIFO</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3356,20 +3399,25 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>FESTIVAL #2707, NEENAH - LIFO</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3377,7 +3425,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fj81W3aDTcG2</t>
+          <t>25300 75TH ST</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3397,14 +3445,22 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>647 S GREEN BAY RD</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3412,7 +3468,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>5:15 am meet for Grafton crew</t>
+          <t>https://goo.gl/maps/fj81W3aDTcG2</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3437,11 +3493,19 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Grafton crew</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3460,45 +3524,16 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3518,19 +3553,19 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3541,18 +3576,18 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Altima, Equip</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3574,34 +3609,43 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3621,31 +3665,31 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3668,31 +3712,31 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3715,36 +3759,31 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3765,41 +3804,41 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>*PERISHABLE INVENTORY</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -3816,47 +3855,40 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -3877,31 +3909,47 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -3920,24 +3968,24 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3963,38 +4011,30 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>work w/ Casey/Jerry</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4012,30 +4052,38 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>work w/ Casey/Jerry</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4061,12 +4109,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4076,7 +4124,11 @@
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -4100,17 +4152,17 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4139,17 +4191,17 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:30</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4167,6 +4219,45 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -1600,8 +1600,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RACINE COURT 
-(HWY 43 &amp; Y)</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3527,7 +3527,11 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Grafton crew</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3557,21 +3561,9 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -3615,12 +3607,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3671,15 +3663,19 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
@@ -3718,12 +3714,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3765,12 +3761,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3812,20 +3808,15 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
@@ -3860,18 +3851,18 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -3924,15 +3915,20 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
@@ -3979,12 +3975,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4022,12 +4018,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4069,15 +4065,19 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -4108,19 +4108,15 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -4151,12 +4147,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4190,17 +4186,17 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -4229,17 +4225,17 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:30</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4257,6 +4253,45 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3634,7 +3634,8 @@
       <c r="O64" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+White Camry,
+Trainer</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3673,7 +3674,8 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3684,10 +3686,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3731,7 +3737,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3778,7 +3784,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3856,13 +3862,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>1st Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -3873,14 +3878,10 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -3920,13 +3921,13 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -3937,12 +3938,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3980,14 +3981,31 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4023,7 +4041,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4070,21 +4088,13 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4113,15 +4123,20 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>@ Store,
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4152,17 +4167,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -4191,7 +4206,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4230,12 +4245,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4269,12 +4284,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:30</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -4292,6 +4307,45 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -3577,8 +3577,8 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Driver,
-Altima, Equip</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Driver,
+          <t>Driver, 
 White Camry,
 Trainer</t>
         </is>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Ethan</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Carlie</t>
+          <t>1st Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3737,10 +3737,14 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Stephanie</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3784,10 +3788,15 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3831,7 +3840,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3878,7 +3887,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3938,12 +3947,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -3998,12 +4007,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4046,9 +4055,21 @@
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4134,11 +4155,7 @@
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -4175,7 +4192,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4216,7 +4233,11 @@
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>

--- a/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
+++ b/08-25-24 to 08-31-24 Milwaukee Schedule.xlsx
@@ -662,7 +662,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>White Camry oil change</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -697,7 +701,11 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Carlie will have Sante Fe</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1434,7 +1442,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -2183,7 +2191,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2226,10 +2234,14 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2294,7 +2306,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2362,7 +2374,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2417,7 +2429,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2468,7 +2480,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2535,7 +2547,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2547,7 +2559,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>*White Camry needs oil changed</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2586,7 +2598,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2596,7 +2608,11 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2652,7 +2668,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2711,7 +2727,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2767,7 +2783,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2822,7 +2838,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2882,7 +2898,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2941,7 +2957,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -2993,21 +3009,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3096,7 +3100,11 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3153,7 +3161,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3199,11 +3207,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
